--- a/project/Project_Teams.xlsx
+++ b/project/Project_Teams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\all\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88D74C8-C651-4D2A-B188-EB5C7243740F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE8DDE8-1A59-4935-96DE-14A3A3BF5565}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{982962A8-C8C6-4E61-B424-3FC42B9DDB53}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Email ID</t>
   </si>
@@ -169,6 +169,30 @@
   </si>
   <si>
     <t>Xpress Cart e-com site</t>
+  </si>
+  <si>
+    <t>Tripzy Booking</t>
+  </si>
+  <si>
+    <t>Abyss Rating</t>
+  </si>
+  <si>
+    <t>Quickrec Recruitment</t>
+  </si>
+  <si>
+    <t>Leader</t>
+  </si>
+  <si>
+    <t>Shashank</t>
+  </si>
+  <si>
+    <t>Aniruddh</t>
+  </si>
+  <si>
+    <t>Yeshwanth</t>
+  </si>
+  <si>
+    <t>Naman</t>
   </si>
 </sst>
 </file>
@@ -665,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A8822B-1151-4FD1-BEFD-747D8138FB89}">
-  <dimension ref="A3:E28"/>
+  <dimension ref="A3:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E7"/>
+      <selection activeCell="F8" sqref="F8:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -677,9 +701,10 @@
     <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -695,8 +720,11 @@
       <c r="E3" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -709,9 +737,14 @@
       <c r="D4" s="7">
         <v>1</v>
       </c>
-      <c r="E4" s="16"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -725,8 +758,9 @@
         <v>1</v>
       </c>
       <c r="E5" s="17"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -740,8 +774,9 @@
         <v>1</v>
       </c>
       <c r="E6" s="17"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
@@ -755,8 +790,9 @@
         <v>1</v>
       </c>
       <c r="E7" s="18"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="18"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -772,8 +808,11 @@
       <c r="E8" s="13" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -787,8 +826,9 @@
         <v>2</v>
       </c>
       <c r="E9" s="14"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -802,8 +842,9 @@
         <v>2</v>
       </c>
       <c r="E10" s="14"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>27</v>
       </c>
@@ -817,8 +858,9 @@
         <v>2</v>
       </c>
       <c r="E11" s="14"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>29</v>
       </c>
@@ -832,8 +874,9 @@
         <v>2</v>
       </c>
       <c r="E12" s="15"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -846,9 +889,14 @@
       <c r="D13" s="9">
         <v>3</v>
       </c>
-      <c r="E13" s="19"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E13" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
@@ -862,8 +910,9 @@
         <v>3</v>
       </c>
       <c r="E14" s="20"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -877,8 +926,9 @@
         <v>3</v>
       </c>
       <c r="E15" s="20"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" s="20"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
@@ -892,8 +942,9 @@
         <v>3</v>
       </c>
       <c r="E16" s="20"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="20"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>23</v>
       </c>
@@ -907,8 +958,9 @@
         <v>3</v>
       </c>
       <c r="E17" s="21"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="21"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>31</v>
       </c>
@@ -921,9 +973,14 @@
       <c r="D18" s="10">
         <v>4</v>
       </c>
-      <c r="E18" s="22"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E18" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>33</v>
       </c>
@@ -937,8 +994,9 @@
         <v>4</v>
       </c>
       <c r="E19" s="23"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="23"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>35</v>
       </c>
@@ -952,8 +1010,9 @@
         <v>4</v>
       </c>
       <c r="E20" s="23"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="23"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>37</v>
       </c>
@@ -967,33 +1026,34 @@
         <v>4</v>
       </c>
       <c r="E21" s="24"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" s="24"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>46</v>
       </c>
@@ -1002,11 +1062,15 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D21">
     <sortCondition ref="D4:D21"/>
   </sortState>
-  <mergeCells count="4">
+  <mergeCells count="8">
     <mergeCell ref="E8:E12"/>
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="E13:E17"/>
     <mergeCell ref="E18:E21"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="F18:F21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
